--- a/4-course-7-semester/economic-dynamics-models/task-2/results/gdp_per_capita_gdp_growth_inflation_2019.xlsx
+++ b/4-course-7-semester/economic-dynamics-models/task-2/results/gdp_per_capita_gdp_growth_inflation_2019.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Bermuda</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Brunei Darussalam</t>
   </si>
   <si>
-    <t>Central Europe and the Baltics</t>
+    <t>Chile</t>
   </si>
   <si>
     <t>Curacao</t>
@@ -91,21 +91,18 @@
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Europe &amp; Central Asia</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>European Union</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
+    <t>Croatia</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -136,6 +133,15 @@
     <t>Oman</t>
   </si>
   <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -166,24 +172,15 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Africa Eastern and Southern</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Africa Western and Central</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Arab World</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Caribbean small states</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -283,18 +274,6 @@
     <t>Algeria</t>
   </si>
   <si>
-    <t>East Asia &amp; Pacific (excluding high income)</t>
-  </si>
-  <si>
-    <t>Early-demographic dividend</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (excluding high income)</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -304,9 +283,6 @@
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Fragile and conflict affected situations</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
@@ -346,33 +322,12 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Heavily indebted poor countries (HIPC)</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
-    <t>IBRD only</t>
-  </si>
-  <si>
-    <t>IDA &amp; IBRD total</t>
-  </si>
-  <si>
-    <t>IDA total</t>
-  </si>
-  <si>
-    <t>IDA blend</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>IDA only</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -403,9 +358,6 @@
     <t>Kiribati</t>
   </si>
   <si>
-    <t>Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
     <t>Lao PDR</t>
   </si>
   <si>
@@ -421,30 +373,12 @@
     <t>St. Lucia</t>
   </si>
   <si>
-    <t>Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t>Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t>Low income</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>Low &amp; middle income</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>Late-demographic dividend</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -457,18 +391,12 @@
     <t>Maldives</t>
   </si>
   <si>
-    <t>Middle East &amp; North Africa</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Middle income</t>
-  </si>
-  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -478,9 +406,6 @@
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -520,42 +445,21 @@
     <t>Nauru</t>
   </si>
   <si>
-    <t>Other small states</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Pre-demographic dividend</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>West Bank and Gaza</t>
-  </si>
-  <si>
-    <t>Pacific island small states</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
@@ -589,15 +493,6 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Small states</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -610,12 +505,6 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -628,24 +517,12 @@
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Timor-Leste</t>
   </si>
   <si>
-    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -664,9 +541,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -679,9 +553,6 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -724,9 +595,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Euro area</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -742,9 +610,6 @@
     <t>Guam</t>
   </si>
   <si>
-    <t>High income</t>
-  </si>
-  <si>
     <t>Hong Kong SAR, China</t>
   </si>
   <si>
@@ -758,12 +623,6 @@
   </si>
   <si>
     <t>New Zealand</t>
-  </si>
-  <si>
-    <t>OECD members</t>
-  </si>
-  <si>
-    <t>Post-demographic dividend</t>
   </si>
   <si>
     <t>San Marino</t>
@@ -1130,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1164,13 +1023,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1184,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1201,10 +1060,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1218,10 +1077,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1235,10 +1094,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1252,10 +1111,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1269,10 +1128,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1286,10 +1145,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1303,10 +1162,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1320,10 +1179,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1337,10 +1196,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1354,10 +1213,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1371,10 +1230,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1388,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1402,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1416,10 +1275,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1430,10 +1289,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1444,10 +1303,10 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1458,10 +1317,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1472,10 +1331,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1486,10 +1345,7 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1500,10 +1356,7 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1514,10 +1367,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1528,10 +1378,7 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1542,7 +1389,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1553,7 +1400,7 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1564,7 +1411,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1575,7 +1422,7 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1586,7 +1433,7 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1597,7 +1444,7 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1608,7 +1455,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1619,7 +1466,7 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1630,7 +1477,7 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1641,7 +1488,7 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1652,23 +1499,29 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1676,7 +1529,7 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1692,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1700,7 +1553,7 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1708,7 +1561,7 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1716,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1724,7 +1577,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1732,7 +1585,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1740,7 +1593,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1748,7 +1601,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1756,7 +1609,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1764,7 +1617,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1772,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1780,7 +1633,7 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1788,7 +1641,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1796,7 +1649,7 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1804,7 +1657,7 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1812,7 +1665,7 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1820,7 +1673,7 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1828,7 +1681,7 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1836,7 +1689,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1844,7 +1697,7 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1852,7 +1705,7 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1860,7 +1713,7 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1868,7 +1721,7 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1876,7 +1729,7 @@
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1884,7 +1737,7 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1892,7 +1745,7 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1900,7 +1753,7 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1908,7 +1761,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1916,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1924,7 +1777,7 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1932,7 +1785,7 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1940,7 +1793,7 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1948,7 +1801,7 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1956,7 +1809,7 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1964,7 +1817,7 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1972,7 +1825,7 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1980,7 +1833,7 @@
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1988,7 +1841,7 @@
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1996,7 +1849,7 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2004,7 +1857,7 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2012,7 +1865,7 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2020,7 +1873,7 @@
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2028,7 +1881,7 @@
         <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2036,7 +1889,7 @@
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2044,7 +1897,7 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2052,7 +1905,7 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2060,7 +1913,7 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2068,7 +1921,7 @@
         <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2076,7 +1929,7 @@
         <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2084,7 +1937,7 @@
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2092,7 +1945,7 @@
         <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2100,7 +1953,7 @@
         <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2108,7 +1961,7 @@
         <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2116,7 +1969,7 @@
         <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2124,7 +1977,7 @@
         <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2132,7 +1985,7 @@
         <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2140,7 +1993,7 @@
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2148,7 +2001,7 @@
         <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2156,7 +2009,7 @@
         <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2164,7 +2017,7 @@
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2172,7 +2025,7 @@
         <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2180,7 +2033,7 @@
         <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2188,7 +2041,7 @@
         <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2196,7 +2049,7 @@
         <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2204,7 +2057,7 @@
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2212,7 +2065,7 @@
         <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2220,7 +2073,7 @@
         <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2228,7 +2081,7 @@
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2236,7 +2089,7 @@
         <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2244,7 +2097,7 @@
         <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2252,7 +2105,7 @@
         <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2260,7 +2113,7 @@
         <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2268,7 +2121,7 @@
         <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2276,7 +2129,7 @@
         <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2284,7 +2137,7 @@
         <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2292,7 +2145,7 @@
         <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2300,7 +2153,7 @@
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2308,7 +2161,7 @@
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2316,7 +2169,7 @@
         <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2324,7 +2177,7 @@
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2332,7 +2185,7 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2340,7 +2193,7 @@
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2348,7 +2201,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2356,7 +2209,7 @@
         <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2364,7 +2217,7 @@
         <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2372,7 +2225,7 @@
         <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2380,7 +2233,7 @@
         <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2388,7 +2241,7 @@
         <v>126</v>
       </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2396,7 +2249,7 @@
         <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2404,7 +2257,7 @@
         <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2412,7 +2265,7 @@
         <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2420,7 +2273,7 @@
         <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2428,7 +2281,7 @@
         <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2436,367 +2289,7 @@
         <v>132</v>
       </c>
       <c r="D134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="D135" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="D136" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="D137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="D145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="D146" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="D149" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="D150" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="D154" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="D156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="D159" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="D160" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="D161" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="D163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="D164" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="D165" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="D166" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="D167" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="D170" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="D171" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="D174" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="D175" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="D178" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2840,7 +2333,7 @@
         <v>-2.08560029017048</v>
       </c>
       <c r="D2">
-        <v>2.0259406786066</v>
+        <v>3.911603419423</v>
       </c>
       <c r="E2">
         <v>6.90566549200324</v>
@@ -2860,7 +2353,7 @@
         <v>4.86223616575663</v>
       </c>
       <c r="D3">
-        <v>3.911603419423</v>
+        <v>-0.69999999780272</v>
       </c>
       <c r="F3">
         <v>3.41153868634566</v>
@@ -2877,7 +2370,7 @@
         <v>2.1669646688237</v>
       </c>
       <c r="D4">
-        <v>3.20254418665031</v>
+        <v>2.08806337615015</v>
       </c>
       <c r="F4">
         <v>2.11314942462376</v>
@@ -2894,7 +2387,7 @@
         <v>1.89616370306027</v>
       </c>
       <c r="D5">
-        <v>-0.69999999780272</v>
+        <v>-2.0259342366392</v>
       </c>
       <c r="F5">
         <v>1.49121084953705</v>
@@ -2911,7 +2404,7 @@
         <v>-0.610274655893093</v>
       </c>
       <c r="D6">
-        <v>2.08806337615015</v>
+        <v>7.59999999853918</v>
       </c>
       <c r="F6">
         <v>2.11153164412327</v>
@@ -2928,7 +2421,7 @@
         <v>3.86910986506845</v>
       </c>
       <c r="D7">
-        <v>1.58631931630194</v>
+        <v>-0.487804878048777</v>
       </c>
       <c r="F7">
         <v>1.87959202770178</v>
@@ -2942,10 +2435,10 @@
         <v>2.43482300037417</v>
       </c>
       <c r="C8">
-        <v>4.07210227732671</v>
+        <v>0.7705395838990799</v>
       </c>
       <c r="D8">
-        <v>-2.0259342366392</v>
+        <v>2.50000006743734</v>
       </c>
       <c r="F8">
         <v>1.05550824713283</v>
@@ -2962,10 +2455,10 @@
         <v>-3.37179982634609</v>
       </c>
       <c r="D9">
-        <v>7.59999999853918</v>
+        <v>1.81256532401552</v>
       </c>
       <c r="F9">
-        <v>1.57773625423422</v>
+        <v>1.22075414302529</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2979,10 +2472,10 @@
         <v>5.28318739627791</v>
       </c>
       <c r="D10">
-        <v>-0.487804878048777</v>
+        <v>6.86568733550151</v>
       </c>
       <c r="F10">
-        <v>1.22075414302529</v>
+        <v>1.84297181445896</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2996,10 +2489,10 @@
         <v>3.02947825716996</v>
       </c>
       <c r="D11">
-        <v>2.50000006743734</v>
+        <v>5.68811514943657</v>
       </c>
       <c r="F11">
-        <v>1.84297181445896</v>
+        <v>1.67194419724758</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3010,13 +2503,13 @@
         <v>0.745798219243483</v>
       </c>
       <c r="C12">
-        <v>1.82160702562607</v>
+        <v>2.08519142117105</v>
       </c>
       <c r="D12">
-        <v>1.81256532401552</v>
+        <v>7.88191515117722</v>
       </c>
       <c r="F12">
-        <v>1.67194419724758</v>
+        <v>2.27131094286585</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3027,13 +2520,13 @@
         <v>0.7748083913806449</v>
       </c>
       <c r="C13">
-        <v>2.08519142117105</v>
+        <v>4.09634264397782</v>
       </c>
       <c r="D13">
-        <v>6.86568733550151</v>
+        <v>4.03759208211947</v>
       </c>
       <c r="F13">
-        <v>2.27131094286585</v>
+        <v>2.53899165759883</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3044,13 +2537,13 @@
         <v>1.09567256732588</v>
       </c>
       <c r="C14">
-        <v>4.09634264397782</v>
+        <v>1.80359525615141</v>
       </c>
       <c r="D14">
-        <v>5.68811514943657</v>
+        <v>2.83100140253532</v>
       </c>
       <c r="F14">
-        <v>2.53899165759883</v>
+        <v>-1.67826662178294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3061,13 +2554,13 @@
         <v>2.28886986777364</v>
       </c>
       <c r="C15">
-        <v>1.82781567132075</v>
+        <v>3.48194560339674</v>
       </c>
       <c r="D15">
-        <v>7.88191515117722</v>
+        <v>1.40000000000001</v>
       </c>
       <c r="F15">
-        <v>1.77992466266073</v>
+        <v>3.77358980957163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3075,13 +2568,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.80359525615141</v>
+        <v>4.55406307213036</v>
       </c>
       <c r="D16">
-        <v>4.03759208211947</v>
+        <v>1.9649963024263</v>
       </c>
       <c r="F16">
-        <v>-1.67826662178294</v>
+        <v>-0.240350840922716</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3089,13 +2582,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.55406307213036</v>
+        <v>0.500233912506772</v>
       </c>
       <c r="D17">
-        <v>2.83100140253532</v>
+        <v>2.21670563961031</v>
       </c>
       <c r="F17">
-        <v>3.77358980957163</v>
+        <v>1.95558841574046</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3103,13 +2596,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.500233912506772</v>
+        <v>4.80398495601084</v>
       </c>
       <c r="D18">
-        <v>1.40000000000001</v>
+        <v>1.22077782271943</v>
       </c>
       <c r="F18">
-        <v>-0.240350840922716</v>
+        <v>2.19247721643698</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3117,13 +2610,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.80398495601084</v>
+        <v>2.24397786011012</v>
       </c>
       <c r="D19">
-        <v>1.9649963024263</v>
+        <v>5.75516999309463</v>
       </c>
       <c r="F19">
-        <v>1.95558841574046</v>
+        <v>2.06569082920953</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3131,13 +2624,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.24397786011012</v>
+        <v>-0.551959287835274</v>
       </c>
       <c r="D20">
-        <v>2.21670563961031</v>
+        <v>3.34891013913392</v>
       </c>
       <c r="F20">
-        <v>2.19247721643698</v>
+        <v>1.98619587380391</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3145,13 +2638,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.551959287835274</v>
+        <v>4.57377173669815</v>
       </c>
       <c r="D21">
-        <v>1.22077782271943</v>
+        <v>3.09999999999999</v>
       </c>
       <c r="F21">
-        <v>1.74739224770771</v>
+        <v>2.77777777777777</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3159,13 +2652,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>4.57377173669815</v>
+        <v>2.48432635462976</v>
       </c>
       <c r="D22">
-        <v>5.75516999309463</v>
-      </c>
-      <c r="F22">
-        <v>1.70638773741014</v>
+        <v>5.95050075376979</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3173,13 +2663,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.48432635462976</v>
+        <v>5.86113649295655</v>
       </c>
       <c r="D23">
-        <v>3.34891013913392</v>
-      </c>
-      <c r="F23">
-        <v>2.06569082920953</v>
+        <v>6.23170951305083</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3187,13 +2674,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.86113649295655</v>
+        <v>-11.1425873465534</v>
       </c>
       <c r="D24">
-        <v>3.09999999999999</v>
-      </c>
-      <c r="F24">
-        <v>1.98619587380391</v>
+        <v>3.47505997865608</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3201,13 +2685,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-11.1425873465534</v>
+        <v>-1.12920645748066</v>
       </c>
       <c r="D25">
-        <v>0.7705395838990799</v>
-      </c>
-      <c r="F25">
-        <v>2.77777777777777</v>
+        <v>4.38452888103882</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3215,10 +2696,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-1.12920645748066</v>
+        <v>2.97971532758523</v>
       </c>
       <c r="D26">
-        <v>5.95050075376979</v>
+        <v>-0.08688595788774479</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3226,10 +2707,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.48481463527726</v>
+        <v>-1.89624329159213</v>
       </c>
       <c r="D27">
-        <v>6.23170951305083</v>
+        <v>3.18685539245533</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3237,10 +2718,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>2.6827594088286</v>
+        <v>4.74495015589534</v>
       </c>
       <c r="D28">
-        <v>3.47505997865608</v>
+        <v>1.76078581719408</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3248,10 +2729,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>2.99996090793107</v>
+        <v>1.48481463527726</v>
       </c>
       <c r="D29">
-        <v>4.38452888103882</v>
+        <v>5.66775246034304</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3259,10 +2740,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.33378075529167</v>
+        <v>2.6827594088286</v>
       </c>
       <c r="D30">
-        <v>-0.08688595788774479</v>
+        <v>2.41751181762513</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3270,10 +2751,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>2.60536932770232</v>
+        <v>2.99996090793107</v>
       </c>
       <c r="D31">
-        <v>3.18685539245533</v>
+        <v>-0.164839982463832</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3281,10 +2762,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>3.25053133558204</v>
+        <v>0.33378075529167</v>
       </c>
       <c r="D32">
-        <v>1.76078581719408</v>
+        <v>5.5451305999467</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3292,10 +2773,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>3.08748098290698</v>
+        <v>2.60536932770232</v>
       </c>
       <c r="D33">
-        <v>5.66775246034304</v>
+        <v>5.5024834367041</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3303,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>5.32455148316902</v>
+        <v>3.25053133558204</v>
       </c>
       <c r="D34">
-        <v>2.41751181762513</v>
+        <v>5.05216802016253</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3314,10 +2795,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>-0.171437013034094</v>
+        <v>3.08748098290698</v>
       </c>
       <c r="D35">
-        <v>1.10241649652465</v>
+        <v>1.00000000010023</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3325,26 +2806,32 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.350447153086122</v>
+        <v>5.32455148316902</v>
       </c>
       <c r="D36">
-        <v>-0.164839982463832</v>
+        <v>0.0121051028476558</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>-0.171437013034094</v>
+      </c>
       <c r="D37">
-        <v>5.5451305999467</v>
+        <v>5.55768388791593</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>0.350447153086122</v>
+      </c>
       <c r="D38">
-        <v>5.5024834367041</v>
+        <v>8.364085699078901</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3352,7 +2839,7 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>5.05216802016253</v>
+        <v>-0.445563314095537</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3360,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>1.00000000010023</v>
+        <v>1.1747905277699</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3368,7 +2855,7 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>5.77989967532918</v>
+        <v>3.92080879452831</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3376,7 +2863,7 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>2.37517041432827</v>
+        <v>4.98235047511106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3384,7 +2871,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>3.98089338257222</v>
+        <v>6.5077747939152</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3392,7 +2879,7 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>2.26564791420599</v>
+        <v>5.61691446889876</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3400,7 +2887,7 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>0.0121051028476558</v>
+        <v>6.22205315994859</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3408,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>5.55768388791593</v>
+        <v>4.49999999151316</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3416,7 +2903,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>8.364085699078901</v>
+        <v>-5.48182337968868</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3424,7 +2911,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>2.24092224893009</v>
+        <v>0.675702998002407</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3432,7 +2919,7 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>-0.445563314095537</v>
+        <v>3.866856574905</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3440,7 +2927,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>1.1747905277699</v>
+        <v>5.35262742597216</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3448,7 +2935,7 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>3.92080879452831</v>
+        <v>2.65306625480355</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3456,7 +2943,7 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>4.98235047511106</v>
+        <v>-1.68459508133022</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3464,7 +2951,7 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>6.5077747939152</v>
+        <v>5.01928768046282</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3472,7 +2959,7 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>5.61691446889876</v>
+        <v>3.73791851955785</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3480,7 +2967,7 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>6.22205315994859</v>
+        <v>-1.34019766501372</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3488,7 +2975,7 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>4.49999999151316</v>
+        <v>5.51379057542323</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3496,7 +2983,7 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>-5.48182337968868</v>
+        <v>0.892291653822227</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3504,7 +2991,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>0.675702998002407</v>
+        <v>1.95546635784412</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3512,7 +2999,7 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>3.866856574905</v>
+        <v>4.50000000008481</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3520,7 +3007,7 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>5.35262742597216</v>
+        <v>5.11415885767801</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3528,7 +3015,7 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>2.65306625480355</v>
+        <v>4.60062566646762</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3536,7 +3023,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>4.14026321515423</v>
+        <v>7.05410693233065</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3544,7 +3031,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>3.48194560339674</v>
+        <v>-0.539619358229857</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3552,7 +3039,7 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>-1.68459508133022</v>
+        <v>5.4577350924848</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3560,7 +3047,7 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>3.99721243852875</v>
+        <v>-6.91492521808797</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3568,7 +3055,7 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <v>4.00123926011476</v>
+        <v>-2.46729763532686</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3576,7 +3063,7 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>4.05316436873218</v>
+        <v>-11.1956945908638</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3584,7 +3071,7 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>2.74133151736915</v>
+        <v>-0.0639436872584724</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3592,7 +3079,7 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>5.01928768046282</v>
+        <v>2.32881977075081</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3600,7 +3087,7 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>5.25219216894924</v>
+        <v>2.40178115444969</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3608,7 +3095,7 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>3.73791851955785</v>
+        <v>2.60793549462446</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3616,7 +3103,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>-1.34019766501372</v>
+        <v>3.68340389825919</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3624,7 +3111,7 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>5.51379057542323</v>
+        <v>4.4000000000229</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3632,7 +3119,7 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>0.892291653822227</v>
+        <v>6.88368884556108</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3640,7 +3127,7 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>1.95546635784412</v>
+        <v>-0.18590678837252</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3648,7 +3135,7 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>4.50000000008481</v>
+        <v>6.64466373729447</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3656,7 +3143,7 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>5.11415885767801</v>
+        <v>3.91041953840173</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3664,7 +3151,7 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>4.60062566646762</v>
+        <v>4.75616080770808</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3672,7 +3159,7 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>7.05410693233065</v>
+        <v>6.7504601462238</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3680,7 +3167,7 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>-0.539619358229857</v>
+        <v>4.06294499167197</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3688,7 +3175,7 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>0.681197395551152</v>
+        <v>5.60224421870959</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3696,7 +3183,7 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <v>5.4577350924848</v>
+        <v>2.31460601020051</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3704,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>-6.91492521808797</v>
+        <v>5.75993058973705</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3712,7 +3199,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>-2.46729763532686</v>
+        <v>3.01237590658823</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3720,7 +3207,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>-11.1956945908638</v>
+        <v>5.44818133617287</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3728,7 +3215,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>-0.0639436872584724</v>
+        <v>4.43943825144628</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3736,7 +3223,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>0.725275803986847</v>
+        <v>-0.922335256941111</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3744,7 +3231,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>4.86891868853291</v>
+        <v>5.94139686297071</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3752,7 +3239,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>3.82359506554897</v>
+        <v>2.2084292771582</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3760,7 +3247,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>2.32881977075081</v>
+        <v>-3.77988914400717</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3768,7 +3255,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>3.7847751336618</v>
+        <v>6.65705542802834</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3776,7 +3263,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>4.01300542908088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3784,7 +3271,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>2.40178115444969</v>
+        <v>2.49763692943365</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3792,7 +3279,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>4.70387368649767</v>
+        <v>2.24063176875049</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3800,7 +3287,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>2.60793549462446</v>
+        <v>6.11852566221303</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3808,7 +3295,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>3.68340389825919</v>
+        <v>4.48043062171888</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3816,7 +3303,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>4.4000000000229</v>
+        <v>-0.40185510068001</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3824,7 +3311,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>6.88368884556108</v>
+        <v>4.18826034117856</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3832,7 +3319,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>1.51263326569271</v>
+        <v>2.19807574069797</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3840,7 +3327,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>-0.18590678837252</v>
+        <v>9.46059756132011</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3848,7 +3335,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>6.64466373729447</v>
+        <v>3.9138443956036</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3856,7 +3343,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>4.01611360135388</v>
+        <v>-2.17825104530091</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3864,7 +3351,7 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <v>3.91041953840173</v>
+        <v>4.61362809749708</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3872,7 +3359,7 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <v>4.75616080770808</v>
+        <v>1.20446911937984</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3880,7 +3367,7 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <v>6.7504601462238</v>
+        <v>5.25424120251536</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3888,7 +3375,7 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <v>1.38875484686342</v>
+        <v>2.38258139815673</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3896,7 +3383,7 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <v>4.06294499167197</v>
+        <v>8.081440021913689</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3904,7 +3391,7 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <v>5.60224421870959</v>
+        <v>4.33173490608283</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3912,7 +3399,7 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <v>2.31460601020051</v>
+        <v>2.21085583286091</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3920,7 +3407,7 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <v>5.75993058973705</v>
+        <v>1.09846777827852</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3928,7 +3415,7 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <v>3.01237590658823</v>
+        <v>2.60165587408937</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3936,7 +3423,7 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <v>5.44818133617287</v>
+        <v>3.24718191743429</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3944,7 +3431,7 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <v>4.43943825144628</v>
+        <v>5.45992144835783</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3952,7 +3439,7 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <v>-0.922335256941111</v>
+        <v>2.15165612180819</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3960,7 +3447,7 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <v>5.94139686297071</v>
+        <v>7.40065243179122</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3968,7 +3455,7 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <v>2.2084292771582</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3976,7 +3463,7 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <v>-3.77988914400717</v>
+        <v>19.5358102438791</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3984,7 +3471,7 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <v>6.65705542802834</v>
+        <v>0.734030017207445</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3992,7 +3479,7 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1.32236308925154</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4000,7 +3487,7 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <v>2.18209982327957</v>
+        <v>0.889585160591679</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4008,7 +3495,7 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <v>2.49763692943365</v>
+        <v>13.7931034482759</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4016,7 +3503,7 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <v>2.97971532758523</v>
+        <v>5.79999997709915</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4024,7 +3511,7 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <v>2.24063176875049</v>
+        <v>6.43874503364799</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4032,7 +3519,7 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <v>6.11852566221303</v>
+        <v>3.19950386354134</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4040,7 +3527,7 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <v>-1.89624329159213</v>
+        <v>5.7096322218392</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4048,7 +3535,7 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <v>4.48043062171888</v>
+        <v>0.404012377970602</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4056,7 +3543,7 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <v>4.74495015589534</v>
+        <v>7.15000000000006</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4064,7 +3551,7 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <v>3.18789625598332</v>
+        <v>3.24118765540442</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4072,7 +3559,7 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <v>-0.40185510068001</v>
+        <v>4.37982349765176</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4080,7 +3567,7 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <v>1.36268746558062</v>
+        <v>4.7568306194579</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4088,7 +3575,7 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <v>0.790553881607693</v>
+        <v>1.40000001959719</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4096,7 +3583,7 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <v>4.18826034117856</v>
+        <v>0.113053696742199</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4104,7 +3591,7 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <v>2.19807574069797</v>
+        <v>1.44130602603785</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4112,366 +3599,6 @@
         <v>132</v>
       </c>
       <c r="D134">
-        <v>9.46059756132011</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="D135">
-        <v>3.9138443956036</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="D136">
-        <v>-2.17825104530091</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="D137">
-        <v>4.61362809749708</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138">
-        <v>1.20446911937984</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139">
-        <v>5.25424120251536</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>2.38258139815673</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141">
-        <v>8.081440021913689</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142">
-        <v>4.33173490608283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143">
-        <v>2.55130199191254</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144">
-        <v>2.55178250806955</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="D145">
-        <v>1.9865685984058</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="D146">
-        <v>2.21085583286091</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147">
-        <v>1.09846777827852</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148">
-        <v>2.60165587408937</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="D149">
-        <v>3.24718191743429</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="D150">
-        <v>5.7801131640218</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151">
-        <v>2.72132584940967</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152">
-        <v>5.45992144835783</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153">
-        <v>2.15165612180819</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="D154">
-        <v>7.40065243179122</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="D156">
-        <v>0.723886005182763</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157">
-        <v>19.5358102438791</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158">
-        <v>1.38901502092041</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="D159">
-        <v>0.734030017207445</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="D160">
-        <v>3.91384439560358</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="D161">
-        <v>2.55178250806961</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162">
-        <v>1.32236308925154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="D163">
-        <v>0.889585160591679</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="D164">
-        <v>13.7931034482759</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="D165">
-        <v>5.79999997709915</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="D166">
-        <v>6.43874503364799</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="D167">
-        <v>3.19950386354134</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168">
-        <v>4.0937692235514</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169">
-        <v>5.7096322218392</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="D170">
-        <v>0.404012377970602</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="D171">
-        <v>7.15000000000006</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172">
-        <v>3.24118765540442</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173">
-        <v>2.61488211866134</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="D174">
-        <v>4.37982349765176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="D175">
-        <v>4.7568306194579</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176">
-        <v>1.40000001959719</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177">
-        <v>0.113053696742199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="D178">
-        <v>1.44130602603785</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179">
         <v>-6.14423631439116</v>
       </c>
     </row>
@@ -4482,7 +3609,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4516,7 +3643,7 @@
         <v>31135.8843563332</v>
       </c>
       <c r="D2">
-        <v>1511.30925874722</v>
+        <v>494.179349886029</v>
       </c>
       <c r="E2">
         <v>189487.14712838</v>
@@ -4536,7 +3663,7 @@
         <v>17376.6496765004</v>
       </c>
       <c r="D3">
-        <v>494.179349886029</v>
+        <v>2177.79901475964</v>
       </c>
       <c r="F3">
         <v>42701.4430454782</v>
@@ -4553,7 +3680,7 @@
         <v>23552.3799480773</v>
       </c>
       <c r="D4">
-        <v>1777.85282247276</v>
+        <v>5396.21586434732</v>
       </c>
       <c r="F4">
         <v>54875.2859563351</v>
@@ -4570,7 +3697,7 @@
         <v>33872.3343072665</v>
       </c>
       <c r="D5">
-        <v>2177.79901475964</v>
+        <v>10076.3552409481</v>
       </c>
       <c r="F5">
         <v>50114.4011099728</v>
@@ -4587,7 +3714,7 @@
         <v>18480.0565925601</v>
       </c>
       <c r="D6">
-        <v>5396.21586434732</v>
+        <v>4604.64632355695</v>
       </c>
       <c r="F6">
         <v>46599.1113350938</v>
@@ -4604,7 +3731,7 @@
         <v>31085.9619255901</v>
       </c>
       <c r="D7">
-        <v>6562.96999763297</v>
+        <v>11715.3601388487</v>
       </c>
       <c r="F7">
         <v>46328.6718408497</v>
@@ -4618,10 +3745,10 @@
         <v>68941.4622272394</v>
       </c>
       <c r="C8">
-        <v>16346.5618056396</v>
+        <v>14699.4627808048</v>
       </c>
       <c r="D8">
-        <v>10076.3552409481</v>
+        <v>4805.75371765917</v>
       </c>
       <c r="F8">
         <v>46794.8992915603</v>
@@ -4638,10 +3765,10 @@
         <v>19024.1772302171</v>
       </c>
       <c r="D9">
-        <v>4604.64632355695</v>
+        <v>223.862875707709</v>
       </c>
       <c r="F9">
-        <v>39195.7748274703</v>
+        <v>48628.641762105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4655,10 +3782,10 @@
         <v>29206.076171875</v>
       </c>
       <c r="D10">
-        <v>11715.3601388487</v>
+        <v>1219.51550596905</v>
       </c>
       <c r="F10">
-        <v>48628.641762105</v>
+        <v>40578.6442850534</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4672,10 +3799,10 @@
         <v>23660.1488068317</v>
       </c>
       <c r="D11">
-        <v>4805.75371765917</v>
+        <v>796.115206827676</v>
       </c>
       <c r="F11">
-        <v>40578.6442850534</v>
+        <v>43070.4983595888</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4686,13 +3813,13 @@
         <v>75719.75289653421</v>
       </c>
       <c r="C12">
-        <v>24914.603370603</v>
+        <v>29554.4905170087</v>
       </c>
       <c r="D12">
-        <v>223.862875707709</v>
+        <v>2154.22681857606</v>
       </c>
       <c r="F12">
-        <v>43070.4983595888</v>
+        <v>53256.2440862119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4703,13 +3830,13 @@
         <v>62087.9741348946</v>
       </c>
       <c r="C13">
-        <v>29554.4905170087</v>
+        <v>23397.8782560944</v>
       </c>
       <c r="D13">
-        <v>1219.51550596905</v>
+        <v>9879.26853313318</v>
       </c>
       <c r="F13">
-        <v>53256.2440862119</v>
+        <v>38040.5869870588</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4720,13 +3847,13 @@
         <v>65831.1894308765</v>
       </c>
       <c r="C14">
-        <v>23397.8782560944</v>
+        <v>19133.7577636254</v>
       </c>
       <c r="D14">
-        <v>796.115206827676</v>
+        <v>6119.76235142981</v>
       </c>
       <c r="F14">
-        <v>38040.5869870588</v>
+        <v>48356.0635043614</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4737,13 +3864,13 @@
         <v>65094.7994287929</v>
       </c>
       <c r="C15">
-        <v>35089.2827874493</v>
+        <v>15311.766903695</v>
       </c>
       <c r="D15">
-        <v>2154.22681857606</v>
+        <v>6837.71782606351</v>
       </c>
       <c r="F15">
-        <v>44774.7750215677</v>
+        <v>43951.2477305677</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4751,13 +3878,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>19133.7577636254</v>
+        <v>16735.6597794761</v>
       </c>
       <c r="D16">
-        <v>9879.26853313318</v>
+        <v>4983.33611435869</v>
       </c>
       <c r="F16">
-        <v>48356.0635043614</v>
+        <v>40458.0018755824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4765,13 +3892,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>16735.6597794761</v>
+        <v>33673.4754474483</v>
       </c>
       <c r="D17">
-        <v>6119.76235142981</v>
+        <v>3552.06814383653</v>
       </c>
       <c r="F17">
-        <v>43951.2477305677</v>
+        <v>52476.2732533327</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4779,13 +3906,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>33673.4754474483</v>
+        <v>22047.8830270631</v>
       </c>
       <c r="D18">
-        <v>6837.71782606351</v>
+        <v>8876.05983587779</v>
       </c>
       <c r="F18">
-        <v>40458.0018755824</v>
+        <v>42865.233643554</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4793,13 +3920,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>22047.8830270631</v>
+        <v>31902.4169048194</v>
       </c>
       <c r="D19">
-        <v>4983.33611435869</v>
+        <v>3322.86332883678</v>
       </c>
       <c r="F19">
-        <v>52476.2732533327</v>
+        <v>47727.1348939463</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4807,13 +3934,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>31902.4169048194</v>
+        <v>32373.2511149607</v>
       </c>
       <c r="D20">
-        <v>3552.06814383653</v>
+        <v>7247.42947645351</v>
       </c>
       <c r="F20">
-        <v>42865.233643554</v>
+        <v>51939.4297445291</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4821,13 +3948,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>32373.2511149607</v>
+        <v>19575.768481407</v>
       </c>
       <c r="D21">
-        <v>8876.05983587779</v>
+        <v>468.117514792315</v>
       </c>
       <c r="F21">
-        <v>39478.3119684814</v>
+        <v>38596.0307118282</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4835,13 +3962,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>19575.768481407</v>
+        <v>17926.841589919</v>
       </c>
       <c r="D22">
-        <v>3322.86332883678</v>
-      </c>
-      <c r="F22">
-        <v>45728.10122651</v>
+        <v>10143.8381955595</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4849,13 +3973,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>17926.841589919</v>
+        <v>31185.6496235309</v>
       </c>
       <c r="D23">
-        <v>7247.42947645351</v>
-      </c>
-      <c r="F23">
-        <v>47727.1348939463</v>
+        <v>2276.3323939018</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4863,13 +3984,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>31185.6496235309</v>
+        <v>20659.6402915421</v>
       </c>
       <c r="D24">
-        <v>468.117514792315</v>
-      </c>
-      <c r="F24">
-        <v>51939.4297445291</v>
+        <v>1533.09568807789</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4877,13 +3995,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>20659.6402915421</v>
+        <v>17700.7034900714</v>
       </c>
       <c r="D25">
-        <v>14699.4627808048</v>
-      </c>
-      <c r="F25">
-        <v>38596.0307118282</v>
+        <v>596.5605701051099</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4891,10 +4006,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>17700.7034900714</v>
+        <v>15774.2549523836</v>
       </c>
       <c r="D26">
-        <v>10143.8381955595</v>
+        <v>2369.72944099031</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4902,10 +4017,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>32850.5486123592</v>
+        <v>15232.4870840509</v>
       </c>
       <c r="D27">
-        <v>2276.3323939018</v>
+        <v>6418.61578254492</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4913,10 +4028,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>23330.817288932</v>
+        <v>15732.2031311754</v>
       </c>
       <c r="D28">
-        <v>1533.09568807789</v>
+        <v>1404.43318720472</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4924,10 +4039,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>21512.2732970947</v>
+        <v>32850.5486123592</v>
       </c>
       <c r="D29">
-        <v>596.5605701051099</v>
+        <v>3603.77524058462</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4935,10 +4050,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>23450.5620241541</v>
+        <v>23330.817288932</v>
       </c>
       <c r="D30">
-        <v>2369.72944099031</v>
+        <v>12762.1380073688</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4946,10 +4061,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>19303.5456581383</v>
+        <v>21512.2732970947</v>
       </c>
       <c r="D31">
-        <v>6418.61578254492</v>
+        <v>9125.878679495199</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4957,10 +4072,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>25942.9547741436</v>
+        <v>23450.5620241541</v>
       </c>
       <c r="D32">
-        <v>1404.43318720472</v>
+        <v>3172.75068492992</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4968,10 +4083,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>17252.0207802609</v>
+        <v>19303.5456581383</v>
       </c>
       <c r="D33">
-        <v>3603.77524058462</v>
+        <v>8516.280038951611</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4979,10 +4094,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>31350.8666282662</v>
+        <v>25942.9547741436</v>
       </c>
       <c r="D34">
-        <v>12762.1380073688</v>
+        <v>8282.11713050921</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4990,10 +4105,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>17123.1162867028</v>
+        <v>17252.0207802609</v>
       </c>
       <c r="D35">
-        <v>10406.6707101531</v>
+        <v>3989.66827645236</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5001,26 +4116,32 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>17688.01500769</v>
+        <v>31350.8666282662</v>
       </c>
       <c r="D36">
-        <v>9125.878679495199</v>
+        <v>6222.52465327248</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>17123.1162867028</v>
+      </c>
       <c r="D37">
-        <v>3172.75068492992</v>
+        <v>3019.09228346646</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>17688.01500769</v>
+      </c>
       <c r="D38">
-        <v>8516.280038951611</v>
+        <v>855.760885186903</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5028,7 +4149,7 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>8282.11713050921</v>
+        <v>6175.8906526556</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5036,7 +4157,7 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>3989.66827645236</v>
+        <v>3624.24909158279</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5044,7 +4165,7 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>8177.83799959088</v>
+        <v>7766.99655422948</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5052,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>3538.83341305865</v>
+        <v>4696.15058555612</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5060,7 +4181,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>11494.0915299335</v>
+        <v>2246.62557816432</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5068,7 +4189,7 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>8136.75183449526</v>
+        <v>1052.58809075877</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5076,7 +4197,7 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>6222.52465327248</v>
+        <v>772.5055883088939</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5084,7 +4205,7 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>3019.09228346646</v>
+        <v>749.453747028806</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5092,7 +4213,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>855.760885186903</v>
+        <v>8380.741122387661</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5100,7 +4221,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>1905.70041785845</v>
+        <v>10834.495680302</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5108,7 +4229,7 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>6175.8906526556</v>
+        <v>4638.63494319511</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5116,7 +4237,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>3624.24909158279</v>
+        <v>6609.51127954588</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5124,7 +4245,7 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>7766.99655422948</v>
+        <v>2574.35675105143</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5132,7 +4253,7 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>4696.15058555612</v>
+        <v>1312.77063606676</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5140,7 +4261,7 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>2246.62557816432</v>
+        <v>4135.23334351202</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5148,7 +4269,7 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>1052.58809075877</v>
+        <v>2072.24489735041</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5156,7 +4277,7 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>772.5055883088939</v>
+        <v>3514.0421682578</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5164,7 +4285,7 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>749.453747028806</v>
+        <v>5943.45845510233</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5172,7 +4293,7 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>8380.741122387661</v>
+        <v>5369.4983713849</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5180,7 +4301,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>10834.495680302</v>
+        <v>4405.48710929391</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5188,7 +4309,7 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>4638.63494319511</v>
+        <v>9812.5958082732</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5196,7 +4317,7 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>6609.51127954588</v>
+        <v>1909.30453654793</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5204,7 +4325,7 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>2574.35675105143</v>
+        <v>1374.03210467421</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5212,7 +4333,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>994.898280933316</v>
+        <v>1643.12138876539</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5220,7 +4341,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>15311.766903695</v>
+        <v>1512.95276955828</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5228,7 +4349,7 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>1312.77063606676</v>
+        <v>2613.94442676868</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5236,7 +4357,7 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>6473.78255095794</v>
+        <v>7527.44305969499</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5244,7 +4365,7 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <v>5168.83751705254</v>
+        <v>672.340499220841</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5252,7 +4373,7 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>1399.11567047963</v>
+        <v>10218.0430276718</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5260,7 +4381,7 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>1852.21911592021</v>
+        <v>11591.0804351768</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5268,7 +4389,7 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>4135.23334351202</v>
+        <v>3848.21237640698</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5276,7 +4397,7 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>1169.69952976992</v>
+        <v>1153.38805839164</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5284,7 +4405,7 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>2072.24489735041</v>
+        <v>3235.00073242188</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5292,7 +4413,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>3514.0421682578</v>
+        <v>4492.10574015947</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5300,7 +4421,7 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>5943.45845510233</v>
+        <v>526.224572187601</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5308,7 +4429,7 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>5369.4983713849</v>
+        <v>10561.6135113508</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5316,7 +4437,7 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>4405.48710929391</v>
+        <v>9950.2176218348</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5324,7 +4445,7 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>9812.5958082732</v>
+        <v>4073.10982973584</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5332,7 +4453,7 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>1909.30453654793</v>
+        <v>6070.38805358275</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5340,7 +4461,7 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>1374.03210467421</v>
+        <v>879.043167526284</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5348,7 +4469,7 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>1643.12138876539</v>
+        <v>1271.11153579726</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5356,7 +4477,7 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>1512.95276955828</v>
+        <v>8909.890151103289</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5364,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>8165.36056490621</v>
+        <v>4404.84583020208</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5372,7 +4493,7 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <v>2613.94442676868</v>
+        <v>506.817139131225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5380,7 +4501,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>7527.44305969499</v>
+        <v>1743.30131716071</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5388,7 +4509,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>672.340499220841</v>
+        <v>11097.168977137</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5396,7 +4517,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>10218.0430276718</v>
+        <v>591.847083709889</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5404,7 +4525,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>11591.0804351768</v>
+        <v>11432.8260346567</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5412,7 +4533,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>8699.460717472981</v>
+        <v>5028.29534239511</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5420,7 +4541,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>1105.71706494846</v>
+        <v>554.099389259855</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5428,7 +4549,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>720.474279044071</v>
+        <v>2229.8586518613</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5436,7 +4557,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>3848.21237640698</v>
+        <v>1924.4718155705</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5444,7 +4565,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>2411.33492174599</v>
+        <v>1194.95723579184</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5452,7 +4573,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>4993.61938118882</v>
+        <v>11029.7355824213</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5460,7 +4581,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>1153.38805839164</v>
+        <v>1481.81386417347</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5468,7 +4589,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>9974.505915461979</v>
+        <v>7023.07752627143</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5476,7 +4597,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>3235.00073242188</v>
+        <v>3485.34084390091</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5484,7 +4605,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>4492.10574015947</v>
+        <v>2820.30639749593</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5492,7 +4613,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>526.224572187601</v>
+        <v>5383.57442150776</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5500,7 +4621,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>10561.6135113508</v>
+        <v>12899.3461112897</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5508,7 +4629,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>7587.35559592308</v>
+        <v>11536.2509765625</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5516,7 +4637,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>9950.2176218348</v>
+        <v>820.177239282094</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5524,7 +4645,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>4073.10982973584</v>
+        <v>1987.5683404338</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5532,7 +4653,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>5487.84405800544</v>
+        <v>755.328979492188</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5540,7 +4661,7 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <v>6070.38805358275</v>
+        <v>1435.83036653076</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5548,7 +4669,7 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <v>879.043167526284</v>
+        <v>2344.04897615315</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5556,7 +4677,7 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <v>1271.11153579726</v>
+        <v>521.754836722241</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5564,7 +4685,7 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <v>3574.16267374159</v>
+        <v>4167.73093878563</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5572,7 +4693,7 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <v>8909.890151103289</v>
+        <v>419.39480767899</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5580,7 +4701,7 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <v>4404.84583020208</v>
+        <v>7417.20364852201</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5588,7 +4709,7 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <v>506.817139131225</v>
+        <v>1987.57970166818</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5596,7 +4717,7 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <v>1743.30131716071</v>
+        <v>6853.69341077988</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5604,7 +4725,7 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <v>11097.168977137</v>
+        <v>3889.85122575483</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5612,7 +4733,7 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <v>591.847083709889</v>
+        <v>709.54004317463</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5620,7 +4741,7 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <v>11432.8260346567</v>
+        <v>893.352454121675</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5628,7 +4749,7 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <v>5028.29534239511</v>
+        <v>7814.38443127242</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5636,7 +4757,7 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <v>554.099389259855</v>
+        <v>890.544402355733</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5644,7 +4765,7 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <v>2229.8586518613</v>
+        <v>7612.03518009452</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5652,7 +4773,7 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <v>1924.4718155705</v>
+        <v>1583.71357646622</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5660,7 +4781,7 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <v>1194.95723579184</v>
+        <v>4903.01213835449</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5668,7 +4789,7 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <v>11029.7355824213</v>
+        <v>3571.94504797154</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5676,7 +4797,7 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <v>13799.2955301837</v>
+        <v>9121.515166737079</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5684,7 +4805,7 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <v>1481.81386417347</v>
+        <v>4652.35084630288</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5692,7 +4813,7 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <v>15774.2549523836</v>
+        <v>1085.88488769531</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5700,7 +4821,7 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <v>7023.07752627143</v>
+        <v>798.585734133959</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5708,7 +4829,7 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <v>3485.34084390091</v>
+        <v>3661.45629882813</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5716,7 +4837,7 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <v>15232.4870840509</v>
+        <v>1784.00981608195</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5724,7 +4845,7 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <v>2820.30639749593</v>
+        <v>8229.72248613756</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5732,7 +4853,7 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <v>15732.2031311754</v>
+        <v>3425.08925344793</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5740,7 +4861,7 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <v>1474.82382199805</v>
+        <v>3122.98259856381</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5748,7 +4869,7 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <v>5383.57442150776</v>
+        <v>4322.86841572276</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5756,7 +4877,7 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <v>3656.85827137011</v>
+        <v>4416.10835754636</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5764,7 +4885,7 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <v>4271.58376628044</v>
+        <v>750.554583376727</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5772,7 +4893,7 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <v>12899.3461112897</v>
+        <v>6624.76186493309</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5780,7 +4901,7 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <v>11536.2509765625</v>
+        <v>1305.00103080403</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5788,366 +4909,6 @@
         <v>132</v>
       </c>
       <c r="D134">
-        <v>820.177239282094</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="D135">
-        <v>1987.5683404338</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="D136">
-        <v>755.328979492188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="D137">
-        <v>1435.83036653076</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138">
-        <v>2344.04897615315</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139">
-        <v>521.754836722241</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>4167.73093878563</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141">
-        <v>419.39480767899</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142">
-        <v>7417.20364852201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143">
-        <v>1617.54193226682</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144">
-        <v>1618.92077064802</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="D145">
-        <v>12615.1325542735</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="D146">
-        <v>1987.57970166818</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147">
-        <v>6853.69341077988</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148">
-        <v>3889.85122575483</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="D149">
-        <v>709.54004317463</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="D150">
-        <v>8268.375718166801</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151">
-        <v>9026.080646073029</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152">
-        <v>893.352454121675</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153">
-        <v>7814.38443127242</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="D154">
-        <v>890.544402355733</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155">
-        <v>7612.03518009452</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="D156">
-        <v>8519.25442463844</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157">
-        <v>1583.71357646622</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158">
-        <v>3573.15570230824</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="D159">
-        <v>4903.01213835449</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="D160">
-        <v>1987.5683404338</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="D161">
-        <v>1618.92077064803</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162">
-        <v>3571.94504797154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="D163">
-        <v>9121.515166737079</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="D164">
-        <v>4652.35084630288</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="D165">
-        <v>1085.88488769531</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="D166">
-        <v>798.585734133959</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="D167">
-        <v>3661.45629882813</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168">
-        <v>9548.20023835792</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169">
-        <v>1784.00981608195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="D170">
-        <v>8229.72248613756</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="D171">
-        <v>3425.08925344793</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172">
-        <v>3122.98259856381</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173">
-        <v>11407.4793339488</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="D174">
-        <v>4322.86841572276</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="D175">
-        <v>4416.10835754636</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176">
-        <v>750.554583376727</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177">
-        <v>6624.76186493309</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="D178">
-        <v>1305.00103080403</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179">
         <v>1316.74065692871</v>
       </c>
     </row>
@@ -6158,7 +4919,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6192,7 +4953,7 @@
         <v>5.56880541962809</v>
       </c>
       <c r="D2">
-        <v>4.38734148957323</v>
+        <v>6.52147984507825</v>
       </c>
       <c r="E2">
         <v>1.27927310091869</v>
@@ -6212,7 +4973,7 @@
         <v>0.208076985397781</v>
       </c>
       <c r="D3">
-        <v>6.52147984507825</v>
+        <v>19.1842756572896</v>
       </c>
       <c r="F3">
         <v>-4.44403710623381</v>
@@ -6229,7 +4990,7 @@
         <v>0.0832617803389297</v>
       </c>
       <c r="D4">
-        <v>1.58228957609332</v>
+        <v>1.25658995186268</v>
       </c>
       <c r="F4">
         <v>3.41878591584748</v>
@@ -6246,7 +5007,7 @@
         <v>1.50126243865081</v>
       </c>
       <c r="D5">
-        <v>19.1842756572896</v>
+        <v>50.9214987087306</v>
       </c>
       <c r="F5">
         <v>1.62258940533843</v>
@@ -6263,7 +5024,7 @@
         <v>4.69759731553729</v>
       </c>
       <c r="D6">
-        <v>1.25658995186268</v>
+        <v>1.06562263923419</v>
       </c>
       <c r="F6">
         <v>1.79482721053171</v>
@@ -6280,7 +5041,7 @@
         <v>-3.335767975365</v>
       </c>
       <c r="D7">
-        <v>2.76004752825904</v>
+        <v>1.90555095277547</v>
       </c>
       <c r="F7">
         <v>1.47519791997564</v>
@@ -6294,10 +5055,10 @@
         <v>4.58943089504362</v>
       </c>
       <c r="C8">
-        <v>3.18893153347703</v>
+        <v>2.57835901388472</v>
       </c>
       <c r="D8">
-        <v>50.9214987087306</v>
+        <v>-0.241307927446329</v>
       </c>
       <c r="F8">
         <v>2.05505655287355</v>
@@ -6314,10 +5075,10 @@
         <v>2.62590000000019</v>
       </c>
       <c r="D9">
-        <v>1.06562263923419</v>
+        <v>1.03776583629723</v>
       </c>
       <c r="F9">
-        <v>1.79482721053171</v>
+        <v>1.49541239615533</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6331,10 +5092,10 @@
         <v>1.12289749027592</v>
       </c>
       <c r="D10">
-        <v>1.90555095277547</v>
+        <v>-0.397554452052262</v>
       </c>
       <c r="F10">
-        <v>1.49541239615533</v>
+        <v>1.27859214632949</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6348,10 +5109,10 @@
         <v>3.889772041651</v>
       </c>
       <c r="D11">
-        <v>-0.241307927446329</v>
+        <v>1.61709395420242</v>
       </c>
       <c r="F11">
-        <v>1.27859214632949</v>
+        <v>2.01510318725352</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6362,13 +5123,13 @@
         <v>-0.472598023910763</v>
       </c>
       <c r="C12">
-        <v>2.12733023764781</v>
+        <v>1.3046571659175</v>
       </c>
       <c r="D12">
-        <v>1.03776583629723</v>
+        <v>3.65813755162172</v>
       </c>
       <c r="F12">
-        <v>2.01510318725352</v>
+        <v>1.19601241975388</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6379,13 +5140,13 @@
         <v>-4.82686572968849</v>
       </c>
       <c r="C13">
-        <v>1.3046571659175</v>
+        <v>3.18893153347703</v>
       </c>
       <c r="D13">
-        <v>-0.397554452052262</v>
+        <v>5.23681906149365</v>
       </c>
       <c r="F13">
-        <v>1.19601241975388</v>
+        <v>2.41616379536786</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6396,13 +5157,13 @@
         <v>-0.359222234570197</v>
       </c>
       <c r="C14">
-        <v>3.18893153347703</v>
+        <v>0.248490586147483</v>
       </c>
       <c r="D14">
-        <v>1.61709395420242</v>
+        <v>2.63114017965431</v>
       </c>
       <c r="F14">
-        <v>2.41616379536786</v>
+        <v>2.04459360470672</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6413,13 +5174,13 @@
         <v>1.78871550735442</v>
       </c>
       <c r="C15">
-        <v>2.19960392242207</v>
+        <v>1.9193093838328</v>
       </c>
       <c r="D15">
-        <v>3.65813755162172</v>
+        <v>8.626732644965809</v>
       </c>
       <c r="F15">
-        <v>1.80002115966444</v>
+        <v>1.88495106654629</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6427,13 +5188,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.248490586147483</v>
+        <v>4.76553661583969</v>
       </c>
       <c r="D16">
-        <v>5.23681906149365</v>
+        <v>1.07538666409587</v>
       </c>
       <c r="F16">
-        <v>2.04459360470672</v>
+        <v>0.636888707052748</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6441,13 +5202,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.76553661583969</v>
+        <v>0.920178589236428</v>
       </c>
       <c r="D17">
-        <v>2.63114017965431</v>
+        <v>-0.693003271755344</v>
       </c>
       <c r="F17">
-        <v>1.88495106654629</v>
+        <v>3.03273379248688</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6455,13 +5216,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.920178589236428</v>
+        <v>3.0576110718209</v>
       </c>
       <c r="D18">
-        <v>8.626732644965809</v>
+        <v>4.22425886990692</v>
       </c>
       <c r="F18">
-        <v>0.636888707052748</v>
+        <v>3.48956695850848</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6469,13 +5230,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.0576110718209</v>
+        <v>-0.839325308149668</v>
       </c>
       <c r="D19">
-        <v>1.07538666409587</v>
+        <v>0.899053929357322</v>
       </c>
       <c r="F19">
-        <v>3.03273379248688</v>
+        <v>0.914095270963216</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6483,13 +5244,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-0.839325308149668</v>
+        <v>-0.364836712939137</v>
       </c>
       <c r="D20">
-        <v>-0.693003271755344</v>
+        <v>0.716018581915833</v>
       </c>
       <c r="F20">
-        <v>3.48956695850848</v>
+        <v>2.54687548145611</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6497,13 +5258,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.364836712939137</v>
+        <v>2.65423419417816</v>
       </c>
       <c r="D21">
-        <v>4.22425886990692</v>
+        <v>2.32783705140642</v>
       </c>
       <c r="F21">
-        <v>2.12733023764781</v>
+        <v>2.13487327204818</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6511,13 +5272,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.65423419417816</v>
+        <v>2.57514230954837</v>
       </c>
       <c r="D22">
-        <v>0.899053929357322</v>
-      </c>
-      <c r="F22">
-        <v>1.96720628554316</v>
+        <v>1.28670040757089</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6525,13 +5283,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.57514230954837</v>
+        <v>2.37429838330954</v>
       </c>
       <c r="D23">
-        <v>0.716018581915833</v>
-      </c>
-      <c r="F23">
-        <v>0.914095270963216</v>
+        <v>0.200492126867886</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6539,13 +5294,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.37429838330954</v>
+        <v>2.16751470393785</v>
       </c>
       <c r="D24">
-        <v>2.32783705140642</v>
-      </c>
-      <c r="F24">
-        <v>2.54687548145611</v>
+        <v>1.16977182233578</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6553,13 +5305,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.16751470393785</v>
+        <v>-2.66567395010162</v>
       </c>
       <c r="D25">
-        <v>2.57835901388472</v>
-      </c>
-      <c r="F25">
-        <v>2.13487327204818</v>
+        <v>5.89540536794925</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6567,10 +5316,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-2.66567395010162</v>
+        <v>0.17992675383023</v>
       </c>
       <c r="D26">
-        <v>1.28670040757089</v>
+        <v>-1.52659285186945</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6578,10 +5327,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.43210750800674</v>
+        <v>-1.82648401826484</v>
       </c>
       <c r="D27">
-        <v>0.200492126867886</v>
+        <v>4.00262054293638</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6589,10 +5338,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.74945274768817</v>
+        <v>3.19397798377996</v>
       </c>
       <c r="D28">
-        <v>1.16977182233578</v>
+        <v>4.20910025592536</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6600,10 +5349,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.291328076397107</v>
+        <v>2.43210750800674</v>
       </c>
       <c r="D29">
-        <v>5.89540536794925</v>
+        <v>0.5629805970967821</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6611,10 +5360,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>-1.9147944211863</v>
+        <v>1.74945274768817</v>
       </c>
       <c r="D30">
-        <v>-1.52659285186945</v>
+        <v>2.56679211746589</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6622,10 +5371,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>2.49348770892786</v>
+        <v>0.291328076397107</v>
       </c>
       <c r="D31">
-        <v>4.00262054293638</v>
+        <v>3.54699869857453</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6633,10 +5382,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>2.19960392242207</v>
+        <v>-1.9147944211863</v>
       </c>
       <c r="D32">
-        <v>4.20910025592536</v>
+        <v>0.449797430981619</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6644,10 +5393,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.72232999584358</v>
+        <v>2.49348770892786</v>
       </c>
       <c r="D33">
-        <v>0.5629805970967821</v>
+        <v>4.48328635371882</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6655,10 +5404,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>2.12932491093834</v>
+        <v>2.19960392242207</v>
       </c>
       <c r="D34">
-        <v>2.56679211746589</v>
+        <v>2.52561865647056</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6666,10 +5415,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.203401958185083</v>
+        <v>0.72232999584358</v>
       </c>
       <c r="D35">
-        <v>2.9613962463567</v>
+        <v>-0.468024909757474</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6677,26 +5426,32 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>8.5229669262272</v>
+        <v>2.12932491093834</v>
       </c>
       <c r="D36">
-        <v>3.54699869857453</v>
+        <v>0.495450027557041</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>0.203401958185083</v>
+      </c>
       <c r="D37">
-        <v>0.449797430981619</v>
+        <v>13.6225675699873</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>8.5229669262272</v>
+      </c>
       <c r="D38">
-        <v>4.48328635371882</v>
+        <v>12.8603968185939</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6704,7 +5459,7 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>2.52561865647056</v>
+        <v>2.37515159469834</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6712,7 +5467,7 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>-0.468024909757474</v>
+        <v>1.43248276043757</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6720,7 +5475,7 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>1.43248276043757</v>
+        <v>1.54748519798422</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6728,7 +5483,7 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>3.06187945460113</v>
+        <v>5.19239145340818</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6736,7 +5491,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>1.5154856301395</v>
+        <v>8.481072981029749</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6744,7 +5499,7 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>3.80372114891544</v>
+        <v>9.40290766328131</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6752,7 +5507,7 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>0.495450027557041</v>
+        <v>6.25220639943007</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6760,7 +5515,7 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>13.6225675699873</v>
+        <v>-3.41786303090853</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6768,7 +5523,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>12.8603968185939</v>
+        <v>-3.16368975011017</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6776,7 +5531,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>4.13475147256271</v>
+        <v>3.32758875328085</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6784,7 +5539,7 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>2.37515159469834</v>
+        <v>3.68060643662776</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6792,7 +5547,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>1.43248276043757</v>
+        <v>2.9613962463567</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6800,7 +5555,7 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>1.54748519798422</v>
+        <v>4.12669713335944</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6808,7 +5563,7 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>5.19239145340818</v>
+        <v>17.5506127561516</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6816,7 +5571,7 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>8.481072981029749</v>
+        <v>1.59848849984144</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6824,7 +5579,7 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>9.40290766328131</v>
+        <v>2.39074879218106</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6832,7 +5587,7 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>6.25220639943007</v>
+        <v>29.7905485004974</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6840,7 +5595,7 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>-3.41786303090853</v>
+        <v>-2.67444003580694</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6848,7 +5603,7 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>-3.16368975011017</v>
+        <v>3.18250309465809</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6856,7 +5611,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>3.32758875328085</v>
+        <v>1.67062575504566</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6864,7 +5619,7 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>3.68060643662776</v>
+        <v>7.63328623819848</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6872,7 +5627,7 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>2.9613962463567</v>
+        <v>4.2752342393575</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6880,7 +5635,7 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>4.12669713335944</v>
+        <v>3.9493878905563</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6888,7 +5643,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>3.00001181877067</v>
+        <v>3.23537176925623</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6896,7 +5651,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>1.9193093838328</v>
+        <v>-2.01279211764702</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6904,7 +5659,7 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>17.5506127561516</v>
+        <v>1.19742392109292</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6912,7 +5667,7 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>2.52561865647056</v>
+        <v>4.09482370321739</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6920,7 +5675,7 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <v>2.9613962463567</v>
+        <v>-0.560426634044902</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6928,7 +5683,7 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>3.49282158027771</v>
+        <v>4.17467924190804</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6936,7 +5691,7 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>3.32758875328085</v>
+        <v>2.66424188464917</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6944,7 +5699,7 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>1.59848849984144</v>
+        <v>2.5536664374732</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6952,7 +5707,7 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>3.65805440727458</v>
+        <v>3.94957042837265</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6960,7 +5715,7 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>2.39074879218106</v>
+        <v>1.35707697645933</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6968,7 +5723,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>29.7905485004974</v>
+        <v>5.40013499004984</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6976,7 +5731,7 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>-2.67444003580694</v>
+        <v>8.339071515933851</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6984,7 +5739,7 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>3.18250309465809</v>
+        <v>-1.08206191020751</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6992,7 +5747,7 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>1.67062575504566</v>
+        <v>4.14230100907156</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7000,7 +5755,7 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>7.63328623819848</v>
+        <v>1.33275199298421</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7008,7 +5763,7 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>4.2752342393575</v>
+        <v>0.86816868476069</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7016,7 +5771,7 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>3.9493878905563</v>
+        <v>1.93054207197829</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7024,7 +5779,7 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>3.23537176925623</v>
+        <v>6.26521865850498</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7032,7 +5787,7 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>-2.01279211764702</v>
+        <v>2.02214250501216</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7040,7 +5795,7 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>3.25504592396947</v>
+        <v>9.97221325737392</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7048,7 +5803,7 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <v>1.19742392109292</v>
+        <v>5.05570841289557</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7056,7 +5811,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>4.09482370321739</v>
+        <v>4.34292697488847</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7064,7 +5819,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>-0.560426634044902</v>
+        <v>0.504436482963541</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7072,7 +5827,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>4.17467924190804</v>
+        <v>7.72834797950487</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7080,7 +5835,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>2.66424188464917</v>
+        <v>0.0744277867441951</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7088,7 +5843,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>3.0095036590888</v>
+        <v>1.02132240619035</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7096,7 +5851,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>4.07933534214901</v>
+        <v>0.406851113874922</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7104,7 +5859,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>5.89540536794925</v>
+        <v>10.3847791937551</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7112,7 +5867,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>2.5536664374732</v>
+        <v>5.50479697553644</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7120,7 +5875,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>3.46870861887061</v>
+        <v>4.69115593453498</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7128,7 +5883,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>3.00001181877067</v>
+        <v>3.75000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7136,7 +5891,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>3.94957042837265</v>
+        <v>9.03633484170507</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7144,7 +5899,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>2.46704405847051</v>
+        <v>1.87221626775495</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7152,7 +5907,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>1.35707697645933</v>
+        <v>0.697076297419486</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7160,7 +5915,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>5.40013499004984</v>
+        <v>1.06414283741798</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7168,7 +5923,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>8.339071515933851</v>
+        <v>3.06187945460113</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7176,7 +5931,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>-1.08206191020751</v>
+        <v>6.79553804220852</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7184,7 +5939,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>1.67062575504566</v>
+        <v>3.26313279118393</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7192,7 +5947,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>4.14230100907156</v>
+        <v>2.48013575513673</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7200,7 +5955,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>1.33275199298421</v>
+        <v>3.10590199454746</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7208,7 +5963,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>2.64769103215174</v>
+        <v>51.9788933465452</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7216,7 +5971,7 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <v>0.86816868476069</v>
+        <v>2.06231067776952</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7224,7 +5979,7 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <v>1.93054207197829</v>
+        <v>1.26246741892911</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7232,7 +5987,7 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <v>6.26521865850498</v>
+        <v>7.70226901403279</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7240,7 +5995,7 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <v>4.09482370321739</v>
+        <v>0.960338638675594</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7248,7 +6003,7 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <v>2.02214250501216</v>
+        <v>7.166604839944</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7256,7 +6011,7 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <v>9.97221325737392</v>
+        <v>2.44060040801315</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7264,7 +6019,7 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <v>5.05570841289557</v>
+        <v>6.97823699315447</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7272,7 +6027,7 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <v>4.34292697488847</v>
+        <v>4.42266431352576</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7280,7 +6035,7 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <v>0.504436482963541</v>
+        <v>1.80843016924331</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -7288,7 +6043,7 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <v>7.72834797950487</v>
+        <v>2.85603411987745</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -7296,7 +6051,7 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <v>0.0744277867441951</v>
+        <v>1.5450926555589</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -7304,7 +6059,7 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <v>1.02132240619035</v>
+        <v>0.997091606993621</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -7312,7 +6067,7 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <v>0.406851113874922</v>
+        <v>3.65805440727458</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -7320,7 +6075,7 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <v>10.3847791937551</v>
+        <v>4.37945563084239</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -7328,7 +6083,7 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <v>5.50479697553644</v>
+        <v>8.16735395407937</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -7336,7 +6091,7 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <v>4.69115593453498</v>
+        <v>7.6625778394986</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -7344,7 +6099,7 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <v>3.75000000000001</v>
+        <v>7.07446826281193</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -7352,7 +6107,7 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <v>0.967708838576783</v>
+        <v>13.8593463213595</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -7360,7 +6115,7 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <v>9.03633484170507</v>
+        <v>7.10227272727273</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7368,7 +6123,7 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <v>0.17992675383023</v>
+        <v>2.46494912955468</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -7376,7 +6131,7 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <v>1.87221626775495</v>
+        <v>3.00001181877067</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -7384,7 +6139,7 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <v>0.697076297419486</v>
+        <v>8.24622626642469</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -7392,7 +6147,7 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <v>-1.82648401826484</v>
+        <v>17.9100041804881</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -7400,7 +6155,7 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <v>1.06414283741798</v>
+        <v>2.50576625960623</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7408,7 +6163,7 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <v>3.19397798377996</v>
+        <v>1.86489767340238</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7416,7 +6171,7 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <v>3.00001181877067</v>
+        <v>3.27936283046665</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7424,7 +6179,7 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <v>3.06187945460113</v>
+        <v>1.38577785223899</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7432,7 +6187,7 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <v>3.84946930147241</v>
+        <v>0.962931177957444</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -7440,7 +6195,7 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <v>1.43248276043757</v>
+        <v>7.37109529960971</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -7448,7 +6203,7 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <v>6.79553804220852</v>
+        <v>4.49944873978896</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -7456,7 +6211,7 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <v>3.26313279118393</v>
+        <v>7.63347048076743</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7464,366 +6219,6 @@
         <v>132</v>
       </c>
       <c r="D134">
-        <v>2.48013575513673</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="D135">
-        <v>3.10590199454746</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="D136">
-        <v>51.9788933465452</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="D137">
-        <v>2.06231067776952</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138">
-        <v>1.26246741892911</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139">
-        <v>7.70226901403279</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>0.960338638675594</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141">
-        <v>7.166604839944</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142">
-        <v>2.44060040801315</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143">
-        <v>2.85603411987745</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144">
-        <v>2.66808493750709</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="D145">
-        <v>1.52437381831751</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="D146">
-        <v>6.97823699315447</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147">
-        <v>4.42266431352576</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148">
-        <v>1.80843016924331</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="D149">
-        <v>2.85603411987745</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="D150">
-        <v>1.43248276043757</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151">
-        <v>3.65805440727458</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152">
-        <v>1.5450926555589</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153">
-        <v>0.997091606993621</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="D154">
-        <v>3.65805440727458</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155">
-        <v>4.37945563084239</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="D156">
-        <v>3.0576110718209</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157">
-        <v>8.16735395407937</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158">
-        <v>4.13475147256271</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="D159">
-        <v>7.6625778394986</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="D160">
-        <v>3.10590199454746</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="D161">
-        <v>2.66808493750709</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162">
-        <v>7.07446826281193</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="D163">
-        <v>13.8593463213595</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="D164">
-        <v>7.10227272727273</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="D165">
-        <v>2.46494912955468</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="D166">
-        <v>3.00001181877067</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="D167">
-        <v>8.24622626642469</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168">
-        <v>2.54620538696823</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169">
-        <v>17.9100041804881</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="D170">
-        <v>2.50576625960623</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="D171">
-        <v>1.86489767340238</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172">
-        <v>3.27936283046665</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173">
-        <v>2.40989778580873</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="D174">
-        <v>1.38577785223899</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="D175">
-        <v>0.962931177957444</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176">
-        <v>7.37109529960971</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177">
-        <v>4.49944873978896</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="D178">
-        <v>7.63347048076743</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179">
         <v>440.829791014713</v>
       </c>
     </row>
